--- a/data-pipeline-app/documentation/docs/project-planning.xlsx
+++ b/data-pipeline-app/documentation/docs/project-planning.xlsx
@@ -5,18 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dell-my.sharepoint.com/personal/shakti_goyal_dell_com/Documents/Documents/Shakti_Bkup_Mar2022/Shakti Docs/PRISM/Training/Data Engineering FY25/capstone-project/data-eng-capstone-project-teameinstein/data-pipeline-app/documentation/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHAKTI_GOYAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FB3815B-BF01-4269-8A8A-4040E0BD03A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB19A630-4B81-428B-B6B5-D085255FD773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{C8B02838-B9D4-42AB-946E-17B3CA540504}"/>
   </bookViews>
   <sheets>
     <sheet name="data-sets" sheetId="1" r:id="rId1"/>
     <sheet name="Connection Info" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data-sets'!$A$2:$F$13</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,65 +41,134 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
+  <si>
+    <t>S. No</t>
+  </si>
+  <si>
+    <t>Type of dataset</t>
+  </si>
+  <si>
+    <t>DataSet</t>
+  </si>
+  <si>
+    <t>Action Owner</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Input Soure</t>
+  </si>
+  <si>
+    <t>Input Source Format</t>
+  </si>
+  <si>
+    <t>Sink</t>
+  </si>
+  <si>
+    <t>Sink Format</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Supplier Information Data</t>
+  </si>
+  <si>
+    <t>Saravanan</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Postgree</t>
+  </si>
+  <si>
+    <t>directly starburst catalog</t>
+  </si>
+  <si>
+    <t>Transactional</t>
+  </si>
   <si>
     <t>Purchase Orders (PO) Data</t>
   </si>
   <si>
+    <t>Shakti</t>
+  </si>
+  <si>
+    <t>MySQL/Kakfa</t>
+  </si>
+  <si>
+    <t>Table/Topic</t>
+  </si>
+  <si>
     <t>Delivery Data</t>
   </si>
   <si>
+    <t>Minio</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>Catalog</t>
+  </si>
+  <si>
     <t>Quality Control Data</t>
   </si>
   <si>
-    <t>Supplier Information Data</t>
+    <t>Reventh</t>
+  </si>
+  <si>
+    <t>Lead Time Data</t>
+  </si>
+  <si>
+    <t>iceberg</t>
+  </si>
+  <si>
+    <t>Return Data</t>
+  </si>
+  <si>
+    <t>Parvathi</t>
+  </si>
+  <si>
+    <t>Inventory Management Data</t>
+  </si>
+  <si>
+    <t>Ramesh</t>
   </si>
   <si>
     <t>Cost Data</t>
   </si>
   <si>
-    <t>Lead Time Data</t>
-  </si>
-  <si>
     <t>Invoice Data</t>
   </si>
   <si>
-    <t>Return Data</t>
-  </si>
-  <si>
     <t>Compliance Data</t>
   </si>
   <si>
-    <t>Inventory Management Data</t>
+    <t>Praful</t>
   </si>
   <si>
     <t>Performance Feedback Data</t>
   </si>
   <si>
-    <t>Type of dataset</t>
-  </si>
-  <si>
-    <t>Transactional</t>
-  </si>
-  <si>
-    <t>Master</t>
-  </si>
-  <si>
-    <t>DataSet</t>
-  </si>
-  <si>
-    <t>S. No</t>
-  </si>
-  <si>
-    <t>Action Owner</t>
+    <t>ERD Diagram</t>
+  </si>
+  <si>
+    <t>MySQL Cloud</t>
+  </si>
+  <si>
+    <t>host</t>
   </si>
   <si>
     <t>gateway01.us-east-1.prod.aws.tidbcloud.com</t>
   </si>
   <si>
-    <t>host</t>
-  </si>
-  <si>
     <t>user</t>
   </si>
   <si>
@@ -114,14 +187,26 @@
     <t>test</t>
   </si>
   <si>
-    <t>MySQL Cloud</t>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>prepare all data sets</t>
+  </si>
+  <si>
+    <t>load data into mysql db and S3 cloud (parquet and Iceburg)</t>
+  </si>
+  <si>
+    <t>creation of data pipeline</t>
+  </si>
+  <si>
+    <t>creation of DAG file</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +216,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -152,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -175,14 +268,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,180 +647,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C39FF5-2370-498C-89E0-E1021B361551}">
-  <dimension ref="A2:F13"/>
+  <dimension ref="A2:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="12.83984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.3125" customWidth="1"/>
+    <col min="3" max="3" width="30.15625" customWidth="1"/>
     <col min="4" max="4" width="13.83984375" customWidth="1"/>
     <col min="5" max="5" width="14.578125" customWidth="1"/>
-    <col min="6" max="6" width="17.15625" customWidth="1"/>
+    <col min="6" max="6" width="20.68359375" customWidth="1"/>
+    <col min="7" max="7" width="20.41796875" customWidth="1"/>
+    <col min="9" max="9" width="15.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4">
         <v>4</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="7">
+        <v>4</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="7">
+        <v>4</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:F13" xr:uid="{12C39FF5-2370-498C-89E0-E1021B361551}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F13">
+      <sortCondition ref="A2:A13"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -689,45 +1047,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="36.7890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3"/>
+      <c r="B4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -736,4 +1094,59 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76C644F-1FC8-4D83-BFE5-043E78D2F929}">
+  <dimension ref="B3:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="54.15625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>